--- a/similarities/split_global/harmonic_similarity_timestamps_89.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,722 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.980000', '0:00:31.920000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:14.840000')]</t>
+          <t>('0:00:39.020000', '0:00:43.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:25.860000')]</t>
+          <t>('0:00:00.800000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.898503', '0:00:16.109841')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=9.898503']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+          <t>('0:00:41.300000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000'), ('0:00:00.300000', '0:00:03.340000')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C#/F', 'A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.420000', '0:00:24.260000')]</t>
+          <t>('0:01:56.800000', '0:02:12.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:01:09', '0:01:14.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=12.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=116.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:42.560000', '0:00:48.720000')]</t>
+          <t>('0:01:32.030000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:45.240000', '0:02:00.100000')]</t>
+          <t>('0:00:31.527551', '0:00:47.026870')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=42.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=92.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'F#:maj', 'C#:maj/G#'], ['F#:maj/A#', 'C#:maj/G#', 'F#:maj']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'G', 'C']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:35.040000', '0:00:36.980000'), ('0:00:34.180000', '0:00:36.600000')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:55.943242', '0:01:05.045464'), ('0:00:57.824058', '0:01:06.833401')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=35.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=34.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:24.520000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+          <t>('0:00:54.178526', '0:01:03.091379')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=54.178526</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:55.820000', '0:01:04.420000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.180000', '0:00:24.580000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=55.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=6.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.560000', '0:00:19.180000')]</t>
+          <t>('0:00:02.081000', '0:00:13.841000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:23.140000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:04:05.420000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:20.420000', '0:00:24.160000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:41.840000'), ('0:00:00.360000', '0:00:05'), ('0:00:50.580000', '0:00:59.480000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:08.200000', '0:00:12.660000'), ('0:00:32.060000', '0:00:33.280000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=22.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=50.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:03.071405', '0:00:13.973174')]</t>
+          <t>('0:00:17.180000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:58.920000', '0:01:06.100000')]</t>
+          <t>('0:00:34.300000', '0:00:49.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=3.071405']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
